--- a/metrics/R2/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/metrics/R2/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5103029960625164</v>
+        <v>0.6644204749112232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5103029960625163</v>
+        <v>0.6644204749112232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5103029960625163</v>
+        <v>0.6644204749112232</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.95311290555022</v>
+        <v>0.9302360373075229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9523901060883267</v>
+        <v>0.9298944520721572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.952375101488842</v>
+        <v>0.9302637167207295</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9693446172049552</v>
+        <v>0.9255301392479099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9692053633314894</v>
+        <v>0.9253348476526819</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9687068045705213</v>
+        <v>0.9252404152878334</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.901128717699702</v>
+        <v>0.9383925692116877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8856816391342529</v>
+        <v>0.9407633147056244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8872851711331524</v>
+        <v>0.938857813006361</v>
       </c>
     </row>
   </sheetData>
